--- a/test/e2e/movies/reports/movie_results.xlsx
+++ b/test/e2e/movies/reports/movie_results.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-19T04:43:51+00:00</t>
+          <t>2025-11-19T04:51:23+00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-19T04:43:59+00:00</t>
+          <t>2025-11-19T04:51:31+00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-11-19T04:43:59+00:00</t>
+          <t>2025-11-19T04:51:32+00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:00+00:00</t>
+          <t>2025-11-19T04:51:33+00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:00+00:00</t>
+          <t>2025-11-19T04:51:33+00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:00+00:00</t>
+          <t>2025-11-19T04:51:33+00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:01+00:00</t>
+          <t>2025-11-19T04:51:33+00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:02+00:00</t>
+          <t>2025-11-19T04:51:35+00:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:03+00:00</t>
+          <t>2025-11-19T04:51:35+00:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:03+00:00</t>
+          <t>2025-11-19T04:51:36+00:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -796,41 +796,41 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>2025-11-19T04:44:13+00:00</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-19T04:51:36+00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>TC11</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>MovieHero</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Hiển thị đúng mác giới hạn độ tuổi</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Element not found: //div[contains(@class, 'bg-red-600')] (timeout 10.0s).</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Element visible: h1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:14+00:00</t>
+          <t>2025-11-19T04:51:37+00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:15+00:00</t>
+          <t>2025-11-19T04:51:38+00:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:16+00:00</t>
+          <t>2025-11-19T04:51:39+00:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:17+00:00</t>
+          <t>2025-11-19T04:51:40+00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -958,7 +958,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:19+00:00</t>
+          <t>2025-11-19T04:51:42+00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:21+00:00</t>
+          <t>2025-11-19T04:51:43+00:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:31+00:00</t>
+          <t>2025-11-19T04:51:54+00:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>(Phim Sắp Chiếu) Hiển thị 'Upcoming Release'</t>
+          <t>(Phim Đang Chiếu) Hiển thị 'Select Cinema'</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Element not found: //h3[contains(., 'Upcoming Release')] (timeout 10.0s).</t>
+          <t>Element not found: //h3[contains(., 'Select Cinema')] (timeout 10.0s).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:31+00:00</t>
+          <t>2025-11-19T04:51:54+00:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:34+00:00</t>
+          <t>2025-11-19T04:51:56+00:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:34+00:00</t>
+          <t>2025-11-19T04:51:57+00:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1150,7 +1150,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:35+00:00</t>
+          <t>2025-11-19T04:51:58+00:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:36+00:00</t>
+          <t>2025-11-19T04:51:58+00:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:36+00:00</t>
+          <t>2025-11-19T04:51:59+00:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:37+00:00</t>
+          <t>2025-11-19T04:52:00+00:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:37+00:00</t>
+          <t>2025-11-19T04:52:00+00:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1310,7 +1310,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:38+00:00</t>
+          <t>2025-11-19T04:52:01+00:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1342,7 +1342,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:39+00:00</t>
+          <t>2025-11-19T04:52:02+00:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1372,41 +1372,41 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>2025-11-19T04:44:49+00:00</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-11-19T04:52:02+00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>TC30</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Layout</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Thanh tìm kiếm (Global Search) hoạt động</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>Element not found: //input[@type='text' and @placeholder='Search movies...'] (timeout 10.0s).</t>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Element visible: header</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:50+00:00</t>
+          <t>2025-11-19T04:52:02+00:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-11-19T04:44:50+00:00</t>
+          <t>2025-11-19T04:52:02+00:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
